--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H2">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I2">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J2">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N2">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O2">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P2">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q2">
-        <v>1.486648860596666</v>
+        <v>6.406819871799779</v>
       </c>
       <c r="R2">
-        <v>13.37983974537</v>
+        <v>57.66137884619801</v>
       </c>
       <c r="S2">
-        <v>0.002794894651743038</v>
+        <v>0.009528950945556487</v>
       </c>
       <c r="T2">
-        <v>0.002794894651743037</v>
+        <v>0.009528950945556487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H3">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I3">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J3">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.864858</v>
       </c>
       <c r="O3">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P3">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q3">
-        <v>60.65909970817555</v>
+        <v>110.3526884245282</v>
       </c>
       <c r="R3">
-        <v>545.93189737358</v>
+        <v>993.174195820754</v>
       </c>
       <c r="S3">
-        <v>0.1140388950258801</v>
+        <v>0.1641290649259681</v>
       </c>
       <c r="T3">
-        <v>0.1140388950258801</v>
+        <v>0.1641290649259682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H4">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I4">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J4">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N4">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O4">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P4">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q4">
-        <v>14.47585773357</v>
+        <v>29.45960961677233</v>
       </c>
       <c r="R4">
-        <v>130.28271960213</v>
+        <v>265.136486550951</v>
       </c>
       <c r="S4">
-        <v>0.02721456184529673</v>
+        <v>0.04381568087298343</v>
       </c>
       <c r="T4">
-        <v>0.02721456184529672</v>
+        <v>0.04381568087298343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H5">
         <v>194.766323</v>
       </c>
       <c r="I5">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J5">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N5">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O5">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P5">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q5">
-        <v>6.292834974022332</v>
+        <v>14.90711139258423</v>
       </c>
       <c r="R5">
-        <v>56.63551476620099</v>
+        <v>134.164002533258</v>
       </c>
       <c r="S5">
-        <v>0.01183050771393165</v>
+        <v>0.02217155094762754</v>
       </c>
       <c r="T5">
-        <v>0.01183050771393164</v>
+        <v>0.02217155094762754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H6">
         <v>194.766323</v>
       </c>
       <c r="I6">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J6">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>11.864858</v>
       </c>
       <c r="O6">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P6">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q6">
-        <v>256.7638628419037</v>
+        <v>256.7638628419038</v>
       </c>
       <c r="R6">
         <v>2310.874765577134</v>
       </c>
       <c r="S6">
-        <v>0.4827151629670639</v>
+        <v>0.3818884099397633</v>
       </c>
       <c r="T6">
-        <v>0.4827151629670638</v>
+        <v>0.3818884099397633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H7">
         <v>194.766323</v>
       </c>
       <c r="I7">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J7">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N7">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O7">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P7">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q7">
-        <v>61.274848580061</v>
+        <v>68.54534557343568</v>
       </c>
       <c r="R7">
-        <v>551.4736372205491</v>
+        <v>616.9081101609211</v>
       </c>
       <c r="S7">
-        <v>0.1151965007486994</v>
+        <v>0.1019484312943547</v>
       </c>
       <c r="T7">
-        <v>0.1151965007486994</v>
+        <v>0.1019484312943547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H8">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I8">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J8">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N8">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O8">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P8">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q8">
-        <v>1.505987908509</v>
+        <v>4.459894162778</v>
       </c>
       <c r="R8">
-        <v>13.553891176581</v>
+        <v>40.139047465002</v>
       </c>
       <c r="S8">
-        <v>0.002831251994093732</v>
+        <v>0.006633261672697359</v>
       </c>
       <c r="T8">
-        <v>0.002831251994093732</v>
+        <v>0.006633261672697361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H9">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I9">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J9">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>11.864858</v>
       </c>
       <c r="O9">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P9">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q9">
-        <v>61.448182636006</v>
+        <v>76.81834682409399</v>
       </c>
       <c r="R9">
-        <v>553.0336437240541</v>
+        <v>691.365121416846</v>
       </c>
       <c r="S9">
-        <v>0.1155223681668678</v>
+        <v>0.1142529793646136</v>
       </c>
       <c r="T9">
-        <v>0.1155223681668677</v>
+        <v>0.1142529793646137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H10">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I10">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J10">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N10">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O10">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P10">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q10">
-        <v>14.664166697241</v>
+        <v>20.507325568161</v>
       </c>
       <c r="R10">
-        <v>131.977500275169</v>
+        <v>184.565930113449</v>
       </c>
       <c r="S10">
-        <v>0.02756858203754853</v>
+        <v>0.03050082619361479</v>
       </c>
       <c r="T10">
-        <v>0.02756858203754852</v>
+        <v>0.0305008261936148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H11">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I11">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J11">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N11">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O11">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P11">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q11">
-        <v>1.035013322333666</v>
+        <v>3.686380417072223</v>
       </c>
       <c r="R11">
-        <v>9.315119901002998</v>
+        <v>33.17742375365</v>
       </c>
       <c r="S11">
-        <v>0.001945821421416319</v>
+        <v>0.005482804084372274</v>
       </c>
       <c r="T11">
-        <v>0.001945821421416319</v>
+        <v>0.005482804084372274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H12">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I12">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J12">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>11.864858</v>
       </c>
       <c r="O12">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P12">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q12">
-        <v>42.23120737033355</v>
+        <v>63.49515012432778</v>
       </c>
       <c r="R12">
-        <v>380.080866333002</v>
+        <v>571.45635111895</v>
       </c>
       <c r="S12">
-        <v>0.07939452196440279</v>
+        <v>0.09443720643350914</v>
       </c>
       <c r="T12">
-        <v>0.07939452196440278</v>
+        <v>0.09443720643350915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H13">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I13">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J13">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N13">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O13">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P13">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q13">
-        <v>10.078173806583</v>
+        <v>16.95058237299167</v>
       </c>
       <c r="R13">
-        <v>90.703564259247</v>
+        <v>152.555241356925</v>
       </c>
       <c r="S13">
-        <v>0.01894693146305618</v>
+        <v>0.02521083332493912</v>
       </c>
       <c r="T13">
-        <v>0.01894693146305618</v>
+        <v>0.02521083332493913</v>
       </c>
     </row>
   </sheetData>
